--- a/data/STATS 2021-22.xlsx
+++ b/data/STATS 2021-22.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E012824E-5F70-0042-8298-579423A3ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18732" windowHeight="11700"/>
+    <workbookView xWindow="12720" yWindow="5360" windowWidth="18740" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -447,18 +459,6 @@
     <t>[3-5 dcr]</t>
   </si>
   <si>
-    <t>Caron [R]</t>
-  </si>
-  <si>
-    <t>Gioffredi [R]</t>
-  </si>
-  <si>
-    <t>Coddetta [R]</t>
-  </si>
-  <si>
-    <t>Giacomelli [R]</t>
-  </si>
-  <si>
     <t>Trofeo Bruna Caravà</t>
   </si>
   <si>
@@ -475,12 +475,24 @@
   </si>
   <si>
     <t>Matteo Marcantonio</t>
+  </si>
+  <si>
+    <t>Caron [P]</t>
+  </si>
+  <si>
+    <t>Gioffredi [P]</t>
+  </si>
+  <si>
+    <t>Coddetta [P]</t>
+  </si>
+  <si>
+    <t>Giacomelli [P]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -555,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -569,10 +581,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -584,20 +593,28 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -635,7 +652,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -669,6 +686,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -703,9 +721,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -878,16 +897,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -1028,2013 +1047,1975 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:30">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>21</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <f t="shared" ref="H4:H15" si="0">SUM(F4:G4)</f>
         <v>22</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4">
         <f t="shared" ref="M4:M9" si="1">SUM(K4:L4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="4">
         <f t="shared" ref="N4:N9" si="2">SUM(J4,M4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
         <v>1</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="4">
         <f t="shared" ref="R4:R16" si="3">SUM(P4,Q4)</f>
         <v>1</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="7"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="7"/>
+      <c r="Z4" s="4"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>16</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>1</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7" t="s">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="7"/>
+      <c r="Z5" s="4"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>33</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>23</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>2</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
         <v>2</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
         <v>1</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="7"/>
+      <c r="Z6" s="4"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="4"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>20</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
         <v>1</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7" t="s">
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="7"/>
+      <c r="Z7" s="4"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="4"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>21</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7" t="s">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="7"/>
+      <c r="Z8" s="4"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="4"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>11</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>20</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4">
         <v>5</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>3</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
         <v>1</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="4">
         <v>3</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7" t="s">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="7"/>
+      <c r="Z9" s="4"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="4"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>15</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>19</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
         <f>SUM(K10,L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="4">
         <f>SUM(M10,J10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
         <v>4</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="7"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="4"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>23</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <f>SUM(F11:G11)</f>
         <v>24</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
         <v>9</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4">
         <v>7</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="4">
         <f>SUM(K11:L11)</f>
         <v>7</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="4">
         <f>SUM(J11,M11)</f>
         <v>16</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
         <v>1</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="4">
         <v>7</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7" t="s">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7" t="s">
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="7"/>
+      <c r="Z11" s="4"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>22</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>18</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
         <v>4</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>4</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="4">
         <f>SUM(K12:L12)</f>
         <v>4</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="4">
         <f>SUM(J12,M12)</f>
         <v>8</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
         <v>5</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7" t="s">
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="7"/>
+      <c r="Z12" s="4"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>28</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <v>17</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>8</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="4">
         <v>8</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="4">
         <f>SUM(M13,J13)</f>
         <v>8</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4">
         <v>2</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="7"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="4"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>44</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>20</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
         <v>12</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="4">
         <f>SUM(K14,L14)</f>
         <v>12</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="4">
         <f>SUM(J14,M14)</f>
         <v>24</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
         <v>1</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="4">
         <v>2</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4">
         <v>1</v>
       </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7" t="s">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7" t="s">
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="7"/>
+      <c r="Z14" s="4"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="4"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>11</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
         <v>2</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <f>SUM(K15:L15)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="4">
         <f>SUM(J15,M15)</f>
         <v>3</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4">
         <v>1</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7" t="s">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="7"/>
+      <c r="Z15" s="4"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="4"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>32</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>17</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <f>SUM(F16,G16)</f>
         <v>17</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>13</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <f>SUM(K16,L16)</f>
         <v>13</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <f>SUM(M16,J16)</f>
         <v>13</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4">
         <v>4</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="7"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="4"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="7"/>
-    </row>
-    <row r="18" spans="1:30" s="12" customFormat="1">
-      <c r="A18" s="11" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18" spans="1:30" s="9" customFormat="1">
+      <c r="A18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
         <v>45</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <f>SUM(F18:G18)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8">
         <f>SUM(K18:L18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="8">
         <f>SUM(J18,M18)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8">
         <f>SUM(P18,Q18)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11" t="s">
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11" t="s">
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Z18" s="11"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="11"/>
-    </row>
-    <row r="19" spans="1:30" s="12" customFormat="1">
-      <c r="A19" s="15" t="s">
+      <c r="Z18" s="8"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="8"/>
+    </row>
+    <row r="19" spans="1:30" s="9" customFormat="1">
+      <c r="A19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
         <v>30</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <f>SUM(F19:G19)</f>
         <v>1</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8">
         <f>SUM(K19:L19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="8">
         <f>SUM(J19,M19)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8">
         <v>2</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="8">
         <f>SUM(P19,Q19)</f>
         <v>2</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11" t="s">
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11" t="s">
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Z19" s="11"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="11"/>
-    </row>
-    <row r="20" spans="1:30" s="12" customFormat="1">
-      <c r="A20" s="11" t="s">
+      <c r="Z19" s="8"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="8"/>
+    </row>
+    <row r="20" spans="1:30" s="9" customFormat="1">
+      <c r="A20" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
         <v>34</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
         <v>1</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <f>SUM(F20,G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11">
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
         <v>1</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="8">
         <f>SUM(K20,L20)</f>
         <v>1</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="8">
         <f>SUM(M20,J20)</f>
         <v>1</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8">
         <f>SUM(P20,Q20)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="11"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="8"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="7"/>
-    </row>
-    <row r="22" spans="1:30" s="12" customFormat="1">
-      <c r="A22" s="11" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="4"/>
+    </row>
+    <row r="22" spans="1:30" s="9" customFormat="1">
+      <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
         <f t="shared" ref="H22:H35" si="4">SUM(F22:G22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11">
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8">
         <f t="shared" ref="M22:M35" si="5">SUM(K22:L22)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="8">
         <f t="shared" ref="N22:N36" si="6">SUM(J22,M22)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8">
         <f t="shared" ref="R22:R39" si="7">SUM(P22,Q22)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11" t="s">
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11" t="s">
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="11"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="11"/>
-    </row>
-    <row r="23" spans="1:30" s="12" customFormat="1">
-      <c r="A23" s="11" t="s">
+      <c r="Z22" s="8"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="8"/>
+    </row>
+    <row r="23" spans="1:30" s="9" customFormat="1">
+      <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
         <v>9</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="8">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8">
         <v>1</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11" t="s">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="11"/>
-    </row>
-    <row r="24" spans="1:30" s="12" customFormat="1">
-      <c r="A24" s="11" t="s">
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="8"/>
+    </row>
+    <row r="24" spans="1:30" s="9" customFormat="1">
+      <c r="A24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8">
         <v>31</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8">
         <v>6</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="8">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11">
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11" t="s">
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11" t="s">
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z24" s="11"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" s="12" customFormat="1">
-      <c r="A25" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11">
+      <c r="Z24" s="8"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="8"/>
+    </row>
+    <row r="25" spans="1:30" s="9" customFormat="1">
+      <c r="A25" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
         <v>1</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
         <f>SUM(F25,G25)</f>
         <v>1</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="11"/>
-    </row>
-    <row r="26" spans="1:30" s="12" customFormat="1">
-      <c r="A26" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="8"/>
+    </row>
+    <row r="26" spans="1:30" s="9" customFormat="1">
+      <c r="A26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
         <v>1</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
         <f>SUM(F26,G26)</f>
         <v>1</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" s="12" customFormat="1">
-      <c r="A27" s="11" t="s">
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="8"/>
+    </row>
+    <row r="27" spans="1:30" s="9" customFormat="1">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
         <v>25</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11">
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="8">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11">
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11" t="s">
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="11"/>
-    </row>
-    <row r="28" spans="1:30" s="12" customFormat="1">
-      <c r="A28" s="11" t="s">
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="8"/>
+    </row>
+    <row r="28" spans="1:30" s="9" customFormat="1">
+      <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
         <v>17</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11">
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11">
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11" t="s">
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11" t="s">
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z28" s="11"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="11"/>
-    </row>
-    <row r="29" spans="1:30" s="12" customFormat="1">
-      <c r="A29" s="11" t="s">
+      <c r="Z28" s="8"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="8"/>
+    </row>
+    <row r="29" spans="1:30" s="9" customFormat="1">
+      <c r="A29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11">
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11" t="s">
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="11"/>
-    </row>
-    <row r="30" spans="1:30" s="12" customFormat="1">
-      <c r="A30" s="11" t="s">
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="8"/>
+    </row>
+    <row r="30" spans="1:30" s="9" customFormat="1">
+      <c r="A30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
         <v>20</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11">
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11">
+      <c r="O30" s="8"/>
+      <c r="P30" s="8">
         <v>1</v>
       </c>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11">
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11" t="s">
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="11"/>
-    </row>
-    <row r="31" spans="1:30" s="12" customFormat="1">
-      <c r="A31" s="11" t="s">
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="8"/>
+    </row>
+    <row r="31" spans="1:30" s="9" customFormat="1">
+      <c r="A31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11" t="s">
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="11"/>
-    </row>
-    <row r="32" spans="1:30" s="12" customFormat="1">
-      <c r="A32" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11">
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="8"/>
+    </row>
+    <row r="32" spans="1:30" s="9" customFormat="1">
+      <c r="A32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8">
         <f>SUM(F32,G32)</f>
         <v>1</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="11"/>
-    </row>
-    <row r="33" spans="1:30" s="12" customFormat="1">
-      <c r="A33" s="11" t="s">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="8"/>
+    </row>
+    <row r="33" spans="1:30" s="9" customFormat="1">
+      <c r="A33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
         <v>21</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11">
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11" t="s">
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="11"/>
-    </row>
-    <row r="34" spans="1:30" s="12" customFormat="1">
-      <c r="A34" s="11" t="s">
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="8"/>
+    </row>
+    <row r="34" spans="1:30" s="9" customFormat="1">
+      <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8">
         <v>14</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11">
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11">
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11" t="s">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11" t="s">
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Z34" s="11"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="11"/>
-    </row>
-    <row r="35" spans="1:30" s="12" customFormat="1">
-      <c r="A35" s="11" t="s">
+      <c r="Z34" s="8"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="8"/>
+    </row>
+    <row r="35" spans="1:30" s="9" customFormat="1">
+      <c r="A35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
         <v>6</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11">
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11" t="s">
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="11"/>
-    </row>
-    <row r="36" spans="1:30" s="12" customFormat="1">
-      <c r="A36" s="11" t="s">
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="8"/>
+    </row>
+    <row r="36" spans="1:30" s="9" customFormat="1">
+      <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8">
         <v>1</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8">
         <f>SUM(F36,G36)</f>
         <v>1</v>
       </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11">
+      <c r="I36" s="8"/>
+      <c r="J36" s="8">
         <v>2</v>
       </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8">
         <f>SUM(K36,L36)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="8">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11">
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11" t="s">
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="11"/>
-    </row>
-    <row r="37" spans="1:30" s="12" customFormat="1">
-      <c r="A37" s="11" t="s">
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="8"/>
+    </row>
+    <row r="37" spans="1:30" s="9" customFormat="1">
+      <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
         <f>SUM(F37:G37)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11">
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8">
         <f>SUM(K37:L37)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="8">
         <f>SUM(M37,J37)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11">
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11" t="s">
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="11"/>
-    </row>
-    <row r="38" spans="1:30" s="12" customFormat="1">
-      <c r="A38" s="11" t="s">
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="8"/>
+    </row>
+    <row r="38" spans="1:30" s="9" customFormat="1">
+      <c r="A38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
         <f>SUM(F38:G38)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8">
         <f>SUM(K38,L38)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="8">
         <f>SUM(J38,M38)</f>
         <v>0</v>
       </c>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11">
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11" t="s">
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="11"/>
-    </row>
-    <row r="39" spans="1:30" s="12" customFormat="1">
-      <c r="A39" s="11" t="s">
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="8"/>
+    </row>
+    <row r="39" spans="1:30" s="9" customFormat="1">
+      <c r="A39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
         <v>7</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
         <f>SUM(F39,G39)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11">
+      <c r="I39" s="8"/>
+      <c r="J39" s="8">
         <v>1</v>
       </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8">
         <f>SUM(K39,L39)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="8">
         <f>SUM(J39,M39)</f>
         <v>1</v>
       </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11">
+      <c r="O39" s="8"/>
+      <c r="P39" s="8">
         <v>1</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11">
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11" t="s">
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="11"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="8"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="7"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="4"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="7"/>
+      <c r="A41" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="4"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="7"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="4"/>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>44456</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="11" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
-      <c r="Z43" s="7"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="4"/>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="9"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="4"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="4"/>
@@ -3069,11 +3050,11 @@
       <c r="AD45" s="4"/>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3146,10 +3127,10 @@
       <c r="E48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="11"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3180,10 +3161,10 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3214,10 +3195,10 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="11"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -3279,10 +3260,10 @@
         <v>44510</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="11"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="4" t="s">
         <v>94</v>
       </c>
@@ -3317,10 +3298,10 @@
     <row r="53" spans="1:30">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="11"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -3392,10 +3373,10 @@
       <c r="E55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3426,10 +3407,10 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G56" s="11"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -3460,10 +3441,10 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="11"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -3532,10 +3513,10 @@
       <c r="E59" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G59" s="11"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -3566,10 +3547,10 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G60" s="11"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -3600,10 +3581,10 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G61" s="11"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -3634,10 +3615,10 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G62" s="11"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -3699,10 +3680,10 @@
         <v>44530</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="11"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="4" t="s">
         <v>105</v>
       </c>
@@ -3737,10 +3718,10 @@
     <row r="65" spans="1:30">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="11"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -3771,10 +3752,10 @@
     <row r="66" spans="1:30">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="11"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -3839,10 +3820,10 @@
         <v>44537</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="11"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="4" t="s">
         <v>108</v>
       </c>
@@ -3877,10 +3858,10 @@
     <row r="69" spans="1:30">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="11"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -3945,10 +3926,10 @@
         <v>44545</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="11"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="4" t="s">
         <v>94</v>
       </c>
@@ -3983,10 +3964,10 @@
     <row r="72" spans="1:30">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="11"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -4017,10 +3998,10 @@
     <row r="73" spans="1:30">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="11"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -4085,10 +4066,10 @@
         <v>44594</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="11"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="4" t="s">
         <v>112</v>
       </c>
@@ -4164,10 +4145,10 @@
       <c r="E77" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="F77" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G77" s="11"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -4198,10 +4179,10 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G78" s="11"/>
+      <c r="G78" s="8"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -4263,10 +4244,10 @@
         <v>44614</v>
       </c>
       <c r="B80" s="4"/>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="11"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="4" t="s">
         <v>116</v>
       </c>
@@ -4301,10 +4282,10 @@
     <row r="81" spans="1:30">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D81" s="11"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -4335,10 +4316,10 @@
     <row r="82" spans="1:30">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D82" s="11"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -4369,10 +4350,10 @@
     <row r="83" spans="1:30">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="11"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -4403,10 +4384,10 @@
     <row r="84" spans="1:30">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="11"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -4478,10 +4459,10 @@
       <c r="E86" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="11"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -4512,10 +4493,10 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="11" t="s">
+      <c r="F87" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G87" s="11"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -4569,10 +4550,10 @@
         <v>44622</v>
       </c>
       <c r="B89" s="4"/>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D89" s="11"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="4" t="s">
         <v>123</v>
       </c>
@@ -4603,10 +4584,10 @@
     <row r="90" spans="1:30">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="11"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -4670,10 +4651,10 @@
       <c r="E92" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="11"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -4700,10 +4681,10 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G93" s="11"/>
+      <c r="G93" s="8"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -4757,10 +4738,10 @@
         <v>44636</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="11"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="4" t="s">
         <v>127</v>
       </c>
@@ -4791,10 +4772,10 @@
     <row r="96" spans="1:30">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="11"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -4821,10 +4802,10 @@
     <row r="97" spans="1:26">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -4881,10 +4862,10 @@
         <v>44643</v>
       </c>
       <c r="B99" s="4"/>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="11"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="4" t="s">
         <v>94</v>
       </c>
@@ -4915,10 +4896,10 @@
     <row r="100" spans="1:26">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="11"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -4945,10 +4926,10 @@
     <row r="101" spans="1:26">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D101" s="11"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -5012,10 +4993,10 @@
       <c r="E103" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G103" s="11"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -5042,10 +5023,10 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G104" s="11"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -5072,10 +5053,10 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G105" s="11"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -5136,10 +5117,10 @@
       <c r="E107" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G107" s="11"/>
+      <c r="G107" s="8"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -5197,13 +5178,13 @@
         <v>110</v>
       </c>
       <c r="D109" s="4"/>
-      <c r="E109" s="17" t="s">
+      <c r="E109" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G109" s="11"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
@@ -5294,10 +5275,10 @@
       <c r="E112" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G112" s="11"/>
+      <c r="G112" s="8"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
@@ -5324,10 +5305,10 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="11" t="s">
+      <c r="F113" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G113" s="11"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -5381,10 +5362,10 @@
         <v>44678</v>
       </c>
       <c r="B115" s="4"/>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D115" s="11"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="4" t="s">
         <v>108</v>
       </c>
@@ -5415,10 +5396,10 @@
     <row r="116" spans="1:26">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D116" s="11"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -5475,10 +5456,10 @@
         <v>44685</v>
       </c>
       <c r="B118" s="4"/>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D118" s="11"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="4" t="s">
         <v>98</v>
       </c>
@@ -5546,10 +5527,10 @@
       <c r="E120" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G120" s="11"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -5576,10 +5557,10 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G121" s="11"/>
+      <c r="G121" s="8"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -5606,10 +5587,10 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G122" s="11"/>
+      <c r="G122" s="8"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
@@ -5636,10 +5617,10 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G123" s="11"/>
+      <c r="G123" s="8"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -5689,7 +5670,7 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125" spans="1:26">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B125" s="4"/>
@@ -5719,7 +5700,7 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126" spans="1:26">
-      <c r="A126" s="7"/>
+      <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -5788,10 +5769,10 @@
       <c r="E128" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="F128" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G128" s="11"/>
+      <c r="G128" s="8"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -5818,10 +5799,10 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="11" t="s">
+      <c r="F129" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G129" s="11"/>
+      <c r="G129" s="8"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -5875,10 +5856,10 @@
         <v>44713</v>
       </c>
       <c r="B131" s="4"/>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="11"/>
+      <c r="D131" s="8"/>
       <c r="E131" s="4" t="s">
         <v>139</v>
       </c>
@@ -5909,10 +5890,10 @@
     <row r="132" spans="1:26">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D132" s="11"/>
+      <c r="D132" s="8"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -5939,10 +5920,10 @@
     <row r="133" spans="1:26">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D133" s="11"/>
+      <c r="D133" s="8"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -5969,10 +5950,10 @@
     <row r="134" spans="1:26">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D134" s="11"/>
+      <c r="D134" s="8"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -5999,10 +5980,10 @@
     <row r="135" spans="1:26">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D135" s="11"/>
+      <c r="D135" s="8"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -6096,10 +6077,10 @@
       <c r="E138" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G138" s="11"/>
+      <c r="G138" s="8"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -6128,8 +6109,8 @@
       <c r="E139" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -6156,10 +6137,10 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="11" t="s">
+      <c r="F140" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G140" s="11"/>
+      <c r="G140" s="8"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -6186,10 +6167,10 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G141" s="11"/>
+      <c r="F141" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G141" s="8"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -6216,10 +6197,10 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="G142" s="11"/>
+      <c r="F142" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G142" s="8"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -6246,10 +6227,10 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G143" s="11"/>
+      <c r="F143" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G143" s="8"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -6276,10 +6257,10 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" s="11"/>
+      <c r="F144" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G144" s="8"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -6357,20 +6338,20 @@
       <c r="Z146" s="4"/>
     </row>
     <row r="147" spans="1:26">
-      <c r="A147" s="20"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
@@ -6385,20 +6366,20 @@
       <c r="Z147" s="4"/>
     </row>
     <row r="148" spans="1:26">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="N148" s="18"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
@@ -6413,20 +6394,20 @@
       <c r="Z148" s="4"/>
     </row>
     <row r="149" spans="1:26">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="4"/>
@@ -6441,20 +6422,20 @@
       <c r="Z149" s="4"/>
     </row>
     <row r="150" spans="1:26">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-      <c r="N150" s="18"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
@@ -6469,20 +6450,20 @@
       <c r="Z150" s="4"/>
     </row>
     <row r="151" spans="1:26">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="4"/>
@@ -6497,20 +6478,20 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152" spans="1:26">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-      <c r="N152" s="18"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
       <c r="Q152" s="4"/>
@@ -6525,20 +6506,20 @@
       <c r="Z152" s="4"/>
     </row>
     <row r="153" spans="1:26">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-      <c r="N153" s="18"/>
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
       <c r="Q153" s="4"/>
@@ -6553,20 +6534,20 @@
       <c r="Z153" s="4"/>
     </row>
     <row r="154" spans="1:26">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="18"/>
-      <c r="N154" s="18"/>
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
@@ -6581,20 +6562,20 @@
       <c r="Z154" s="4"/>
     </row>
     <row r="155" spans="1:26">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
@@ -6609,20 +6590,20 @@
       <c r="Z155" s="4"/>
     </row>
     <row r="156" spans="1:26">
-      <c r="A156" s="18"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="N156" s="18"/>
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
       <c r="Q156" s="4"/>
@@ -6637,20 +6618,20 @@
       <c r="Z156" s="4"/>
     </row>
     <row r="157" spans="1:26">
-      <c r="A157" s="18"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="18"/>
+      <c r="A157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
       <c r="Q157" s="4"/>
@@ -6665,20 +6646,20 @@
       <c r="Z157" s="4"/>
     </row>
     <row r="158" spans="1:26">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
-      <c r="N158" s="18"/>
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
       <c r="Q158" s="4"/>
@@ -6693,20 +6674,20 @@
       <c r="Z158" s="4"/>
     </row>
     <row r="159" spans="1:26">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
@@ -6721,20 +6702,20 @@
       <c r="Z159" s="4"/>
     </row>
     <row r="160" spans="1:26">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="18"/>
-      <c r="N160" s="18"/>
+      <c r="A160" s="15"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
       <c r="Q160" s="4"/>
@@ -6749,20 +6730,20 @@
       <c r="Z160" s="4"/>
     </row>
     <row r="161" spans="1:26">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="18"/>
-      <c r="N161" s="18"/>
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
       <c r="Q161" s="4"/>
@@ -6777,20 +6758,20 @@
       <c r="Z161" s="4"/>
     </row>
     <row r="162" spans="1:26">
-      <c r="A162" s="18"/>
-      <c r="B162" s="18"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
+      <c r="A162" s="15"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="4"/>
@@ -6805,20 +6786,20 @@
       <c r="Z162" s="4"/>
     </row>
     <row r="163" spans="1:26">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
-      <c r="N163" s="18"/>
+      <c r="A163" s="15"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
@@ -6833,20 +6814,20 @@
       <c r="Z163" s="4"/>
     </row>
     <row r="164" spans="1:26">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="18"/>
-      <c r="N164" s="18"/>
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
       <c r="Q164" s="4"/>
@@ -8129,30 +8110,4 @@
     <ignoredError sqref="M15" formula="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>